--- a/data/raw/srilankan_annual_report_unclean.xlsx
+++ b/data/raw/srilankan_annual_report_unclean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Data Warehouse\Sri-Lankan-Airlines-Data-Warehouse-\data_sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Data Warehouse\Sri-Lankan-Airlines-Data-Warehouse-\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A628E-548C-4F64-A1EB-1C8276454B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07BF50C-5DCE-46E2-A93A-CA257B35934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9270" xr2:uid="{D6800F6C-D68C-4762-A98D-89EA6A67B540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{D6800F6C-D68C-4762-A98D-89EA6A67B540}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>year</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>duplicate metric different unit</t>
-  </si>
-  <si>
-    <t>202x</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>typo in year</t>
@@ -548,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF081478-20C7-41E4-8236-A854A13257D8}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
@@ -595,7 +589,9 @@
       <c r="C3" s="2">
         <v>310000000</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -619,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>-35000000</v>
+        <v>15000000</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -666,17 +662,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
+      <c r="A9" s="2">
+        <v>2020</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
+      <c r="C9" s="2">
+        <v>2200000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -687,10 +683,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -701,9 +697,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -716,7 +714,7 @@
         <v>1200000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -724,13 +722,13 @@
         <v>2022</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -738,13 +736,13 @@
         <v>2023</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -758,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,75 +764,83 @@
         <v>2023</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>5500</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
         <v>5200</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2023</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
         <v>5150</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2023</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
         <v>0.82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -842,12 +848,14 @@
         <v>2022</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4">
         <v>0.78</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
